--- a/old_database/crypto/s2cDNASample/s2cDNASample_159.xlsx
+++ b/old_database/crypto/s2cDNASample/s2cDNASample_159.xlsx
@@ -37,7 +37,7 @@
     <t>05.25.10</t>
   </si>
   <si>
-    <t>Retrofitted</t>
+    <t>Retrofitted_159</t>
   </si>
 </sst>
 </file>

--- a/old_database/crypto/s2cDNASample/s2cDNASample_159.xlsx
+++ b/old_database/crypto/s2cDNASample/s2cDNASample_159.xlsx
@@ -49,7 +49,7 @@
     <t xml:space="preserve">Retrofitted_159</t>
   </si>
   <si>
-    <t xml:space="preserve">SolexaPrep</t>
+    <t xml:space="preserve">SuperScriptIII</t>
   </si>
 </sst>
 </file>
@@ -59,7 +59,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -89,6 +89,13 @@
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <b val="true"/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -149,12 +156,12 @@
       <alignment horizontal="center" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -177,14 +184,14 @@
   <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G1" activeCellId="0" sqref="G1:G5"/>
+      <selection pane="topLeft" activeCell="G2" activeCellId="0" sqref="G2:G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="1" style="0" width="8.67"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="11.94"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="20.29"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="20.3"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="20.98"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="14.59"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="8" style="0" width="8.67"/>
@@ -232,7 +239,7 @@
       <c r="F2" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="G2" s="0" t="s">
+      <c r="G2" s="3" t="s">
         <v>9</v>
       </c>
     </row>
